--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Dag1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H2">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I2">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J2">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N2">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O2">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P2">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q2">
-        <v>47.88288597690872</v>
+        <v>48.81491637920799</v>
       </c>
       <c r="R2">
-        <v>47.88288597690872</v>
+        <v>195.259665516832</v>
       </c>
       <c r="S2">
-        <v>0.002520740582791408</v>
+        <v>0.001707075030490018</v>
       </c>
       <c r="T2">
-        <v>0.002520740582791408</v>
+        <v>0.001330125065027306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H3">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I3">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J3">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N3">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O3">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P3">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q3">
-        <v>50.33882121298958</v>
+        <v>55.29059035180799</v>
       </c>
       <c r="R3">
-        <v>50.33882121298958</v>
+        <v>331.743542110848</v>
       </c>
       <c r="S3">
-        <v>0.002650030526202126</v>
+        <v>0.00193353165818032</v>
       </c>
       <c r="T3">
-        <v>0.002650030526202126</v>
+        <v>0.002259864572412383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H4">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I4">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J4">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N4">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O4">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P4">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q4">
-        <v>16.30796818787889</v>
+        <v>16.85905756677333</v>
       </c>
       <c r="R4">
-        <v>16.30796818787889</v>
+        <v>101.15434540064</v>
       </c>
       <c r="S4">
-        <v>0.0008585146111260244</v>
+        <v>0.0005895672541209317</v>
       </c>
       <c r="T4">
-        <v>0.0008585146111260244</v>
+        <v>0.0006890718054734269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H5">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I5">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J5">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N5">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O5">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P5">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q5">
-        <v>15.20014151799142</v>
+        <v>15.91600472881067</v>
       </c>
       <c r="R5">
-        <v>15.20014151799142</v>
+        <v>95.49602837286399</v>
       </c>
       <c r="S5">
-        <v>0.0008001943242738345</v>
+        <v>0.0005565883601367045</v>
       </c>
       <c r="T5">
-        <v>0.0008001943242738345</v>
+        <v>0.0006505268797480118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H6">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I6">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J6">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N6">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O6">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P6">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q6">
-        <v>34.16943058524775</v>
+        <v>35.99343143125333</v>
       </c>
       <c r="R6">
-        <v>34.16943058524775</v>
+        <v>215.96058858752</v>
       </c>
       <c r="S6">
-        <v>0.001798811174594714</v>
+        <v>0.001258703130425071</v>
       </c>
       <c r="T6">
-        <v>0.001798811174594714</v>
+        <v>0.00147114147296103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.27938332034237</v>
+        <v>2.323664</v>
       </c>
       <c r="H7">
-        <v>2.27938332034237</v>
+        <v>4.647328</v>
       </c>
       <c r="I7">
-        <v>0.02686959872698937</v>
+        <v>0.02140731960427828</v>
       </c>
       <c r="J7">
-        <v>0.02686959872698937</v>
+        <v>0.01837043640668808</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N7">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O7">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P7">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q7">
-        <v>346.5039018446398</v>
+        <v>439.282171778968</v>
       </c>
       <c r="R7">
-        <v>346.5039018446398</v>
+        <v>1757.128687115872</v>
       </c>
       <c r="S7">
-        <v>0.01824130750800127</v>
+        <v>0.01536185417092524</v>
       </c>
       <c r="T7">
-        <v>0.01824130750800127</v>
+        <v>0.01196970661106592</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H8">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I8">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J8">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N8">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O8">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P8">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q8">
-        <v>612.9536805414965</v>
+        <v>658.9583542816301</v>
       </c>
       <c r="R8">
-        <v>612.9536805414965</v>
+        <v>3953.750125689781</v>
       </c>
       <c r="S8">
-        <v>0.0322682558995593</v>
+        <v>0.02304400859746421</v>
       </c>
       <c r="T8">
-        <v>0.0322682558995593</v>
+        <v>0.02693327436116855</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H9">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I9">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J9">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N9">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O9">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P9">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q9">
-        <v>644.39235662408</v>
+        <v>746.374246397476</v>
       </c>
       <c r="R9">
-        <v>644.39235662408</v>
+        <v>6717.368217577284</v>
       </c>
       <c r="S9">
-        <v>0.03392330958009181</v>
+        <v>0.0261009735124452</v>
       </c>
       <c r="T9">
-        <v>0.03392330958009181</v>
+        <v>0.04575927042365605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H10">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I10">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J10">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N10">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O10">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P10">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q10">
-        <v>208.7599550230648</v>
+        <v>227.5824205584856</v>
       </c>
       <c r="R10">
-        <v>208.7599550230648</v>
+        <v>2048.24178502637</v>
       </c>
       <c r="S10">
-        <v>0.01098993262315308</v>
+        <v>0.00795863839027992</v>
       </c>
       <c r="T10">
-        <v>0.01098993262315308</v>
+        <v>0.01395279322172654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H11">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I11">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J11">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N11">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O11">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P11">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q11">
-        <v>194.5785534459538</v>
+        <v>214.8520382860458</v>
       </c>
       <c r="R11">
-        <v>194.5785534459538</v>
+        <v>1933.668344574412</v>
       </c>
       <c r="S11">
-        <v>0.01024336871525653</v>
+        <v>0.007513452383259922</v>
       </c>
       <c r="T11">
-        <v>0.01024336871525653</v>
+        <v>0.01317230942581209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H12">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I12">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J12">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N12">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O12">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P12">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q12">
-        <v>437.4063470053801</v>
+        <v>485.8796060744623</v>
       </c>
       <c r="R12">
-        <v>437.4063470053801</v>
+        <v>4372.91645467016</v>
       </c>
       <c r="S12">
-        <v>0.02302676431405408</v>
+        <v>0.01699138306231588</v>
       </c>
       <c r="T12">
-        <v>0.02302676431405408</v>
+        <v>0.02978867022142738</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.1786171001164</v>
+        <v>31.36741633333333</v>
       </c>
       <c r="H13">
-        <v>29.1786171001164</v>
+        <v>94.102249</v>
       </c>
       <c r="I13">
-        <v>0.3439604589064187</v>
+        <v>0.2889799500306953</v>
       </c>
       <c r="J13">
-        <v>0.3439604589064187</v>
+        <v>0.3719770545528154</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N13">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O13">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P13">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q13">
-        <v>4435.631596225962</v>
+        <v>5929.922213367226</v>
       </c>
       <c r="R13">
-        <v>4435.631596225962</v>
+        <v>35579.53328020335</v>
       </c>
       <c r="S13">
-        <v>0.2335088277743039</v>
+        <v>0.2073714940849302</v>
       </c>
       <c r="T13">
-        <v>0.2335088277743039</v>
+        <v>0.2423707368990248</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H14">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I14">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J14">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N14">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O14">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P14">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q14">
-        <v>61.29803525152208</v>
+        <v>0.7857943089724999</v>
       </c>
       <c r="R14">
-        <v>61.29803525152208</v>
+        <v>4.714765853834999</v>
       </c>
       <c r="S14">
-        <v>0.00322696600155648</v>
+        <v>2.747950715571577E-05</v>
       </c>
       <c r="T14">
-        <v>0.00322696600155648</v>
+        <v>3.211737673175621E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H15">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I15">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J15">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N15">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O15">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P15">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q15">
-        <v>64.4420396615599</v>
+        <v>0.89003596566</v>
       </c>
       <c r="R15">
-        <v>64.4420396615599</v>
+        <v>8.010323690939998</v>
       </c>
       <c r="S15">
-        <v>0.003392478571385278</v>
+        <v>3.112487505690792E-05</v>
       </c>
       <c r="T15">
-        <v>0.003392478571385278</v>
+        <v>5.456699053590699E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H16">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I16">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J16">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N16">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O16">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P16">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q16">
-        <v>20.87690389721654</v>
+        <v>0.2713873642166667</v>
       </c>
       <c r="R16">
-        <v>20.87690389721654</v>
+        <v>2.44248627795</v>
       </c>
       <c r="S16">
-        <v>0.001099041083741863</v>
+        <v>9.490512888435443E-06</v>
       </c>
       <c r="T16">
-        <v>0.001099041083741863</v>
+        <v>1.663841946408788E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H17">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I17">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J17">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N17">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O17">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P17">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q17">
-        <v>19.45870203076916</v>
+        <v>0.2562066447133333</v>
       </c>
       <c r="R17">
-        <v>19.45870203076916</v>
+        <v>2.30585980242</v>
       </c>
       <c r="S17">
-        <v>0.001024381444365314</v>
+        <v>8.959637714795872E-06</v>
       </c>
       <c r="T17">
-        <v>0.001024381444365314</v>
+        <v>1.570770856090277E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H18">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I18">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J18">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N18">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O18">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P18">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q18">
-        <v>43.74253802389906</v>
+        <v>0.5794014550666667</v>
       </c>
       <c r="R18">
-        <v>43.74253802389906</v>
+        <v>5.214613095600001</v>
       </c>
       <c r="S18">
-        <v>0.002302776629719283</v>
+        <v>2.026187546631087E-05</v>
       </c>
       <c r="T18">
-        <v>0.002302776629719283</v>
+        <v>3.552237767343343E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.91798867740466</v>
+        <v>0.037405</v>
       </c>
       <c r="H19">
-        <v>2.91798867740466</v>
+        <v>0.112215</v>
       </c>
       <c r="I19">
-        <v>0.03439754259497914</v>
+        <v>0.0003446026576123008</v>
       </c>
       <c r="J19">
-        <v>0.03439754259497914</v>
+        <v>0.000443575000812618</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>152.016511989126</v>
+        <v>189.0471995</v>
       </c>
       <c r="N19">
-        <v>152.016511989126</v>
+        <v>378.094399</v>
       </c>
       <c r="O19">
-        <v>0.6788827661083993</v>
+        <v>0.717598207290517</v>
       </c>
       <c r="P19">
-        <v>0.6788827661083993</v>
+        <v>0.6515744289399755</v>
       </c>
       <c r="Q19">
-        <v>443.5824607628194</v>
+        <v>7.0713104972975</v>
       </c>
       <c r="R19">
-        <v>443.5824607628194</v>
+        <v>42.427862983785</v>
       </c>
       <c r="S19">
-        <v>0.02335189886421092</v>
+        <v>0.0002472862493301349</v>
       </c>
       <c r="T19">
-        <v>0.02335189886421092</v>
+        <v>0.0002890221278465308</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H20">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I20">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J20">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.0069476027036</v>
+        <v>21.0077345</v>
       </c>
       <c r="N20">
-        <v>21.0069476027036</v>
+        <v>42.015469</v>
       </c>
       <c r="O20">
-        <v>0.09381385291248992</v>
+        <v>0.07974258627637139</v>
       </c>
       <c r="P20">
-        <v>0.09381385291248992</v>
+        <v>0.07240574124537677</v>
       </c>
       <c r="Q20">
-        <v>1059.912330282407</v>
+        <v>0.9256638052734999</v>
       </c>
       <c r="R20">
-        <v>1059.912330282407</v>
+        <v>5.553982831640999</v>
       </c>
       <c r="S20">
-        <v>0.05579789042858273</v>
+        <v>3.237079331111626E-05</v>
       </c>
       <c r="T20">
-        <v>0.05579789042858273</v>
+        <v>3.783419251253506E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H21">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I21">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J21">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.0844036032643</v>
+        <v>23.794572</v>
       </c>
       <c r="N21">
-        <v>22.0844036032643</v>
+        <v>71.38371599999999</v>
       </c>
       <c r="O21">
-        <v>0.09862560855962028</v>
+        <v>0.09032105344911566</v>
       </c>
       <c r="P21">
-        <v>0.09862560855962028</v>
+        <v>0.1230163792728212</v>
       </c>
       <c r="Q21">
-        <v>1114.275721001013</v>
+        <v>1.048460226036</v>
       </c>
       <c r="R21">
-        <v>1114.275721001013</v>
+        <v>9.436142034324</v>
       </c>
       <c r="S21">
-        <v>0.05865978988194106</v>
+        <v>3.666502792761753E-05</v>
       </c>
       <c r="T21">
-        <v>0.05865978988194106</v>
+        <v>6.427978355791123E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H22">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I22">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J22">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.15455274342772</v>
+        <v>7.255376666666667</v>
       </c>
       <c r="N22">
-        <v>7.15455274342772</v>
+        <v>21.76613</v>
       </c>
       <c r="O22">
-        <v>0.03195115118201162</v>
+        <v>0.02754045181831666</v>
       </c>
       <c r="P22">
-        <v>0.03195115118201162</v>
+        <v>0.03750982231551986</v>
       </c>
       <c r="Q22">
-        <v>360.9852708652876</v>
+        <v>0.3196936620633333</v>
       </c>
       <c r="R22">
-        <v>360.9852708652876</v>
+        <v>2.87724295857</v>
       </c>
       <c r="S22">
-        <v>0.01900366286399065</v>
+        <v>1.117980134749715E-05</v>
       </c>
       <c r="T22">
-        <v>0.01900366286399065</v>
+        <v>1.960001809507029E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H23">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I23">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J23">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.66853239748561</v>
+        <v>6.849529333333333</v>
       </c>
       <c r="N23">
-        <v>6.66853239748561</v>
+        <v>20.548588</v>
       </c>
       <c r="O23">
-        <v>0.02978065777625749</v>
+        <v>0.02599990892953593</v>
       </c>
       <c r="P23">
-        <v>0.02978065777625749</v>
+        <v>0.03541161817534047</v>
       </c>
       <c r="Q23">
-        <v>336.4629572395867</v>
+        <v>0.3018108110146666</v>
       </c>
       <c r="R23">
-        <v>336.4629572395867</v>
+        <v>2.716297299132</v>
       </c>
       <c r="S23">
-        <v>0.01771271329236181</v>
+        <v>1.055443167028607E-05</v>
       </c>
       <c r="T23">
-        <v>0.01771271329236181</v>
+        <v>1.850364289049749E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.455323178223</v>
+        <v>0.044063</v>
       </c>
       <c r="H24">
-        <v>50.455323178223</v>
+        <v>0.132189</v>
       </c>
       <c r="I24">
-        <v>0.5947723997716127</v>
+        <v>0.0004059411015204066</v>
       </c>
       <c r="J24">
-        <v>0.5947723997716127</v>
+        <v>0.0005225302836734765</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.990646935205</v>
+        <v>15.48994666666667</v>
       </c>
       <c r="N24">
-        <v>14.990646935205</v>
+        <v>46.46984</v>
       </c>
       <c r="O24">
-        <v>0.06694596346122149</v>
+        <v>0.05879779223614324</v>
       </c>
       <c r="P24">
-        <v>0.06694596346122149</v>
+        <v>0.08008201005096623</v>
       </c>
       <c r="Q24">
-        <v>756.3579357664064</v>
+        <v>0.6825335199733333</v>
       </c>
       <c r="R24">
-        <v>756.3579357664064</v>
+        <v>6.142801679760001</v>
       </c>
       <c r="S24">
-        <v>0.0398176113428534</v>
+        <v>2.3868440547308E-05</v>
       </c>
       <c r="T24">
-        <v>0.0398176113428534</v>
+        <v>4.184527542907358E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.044063</v>
+      </c>
+      <c r="H25">
+        <v>0.132189</v>
+      </c>
+      <c r="I25">
+        <v>0.0004059411015204066</v>
+      </c>
+      <c r="J25">
+        <v>0.0005225302836734765</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>189.0471995</v>
+      </c>
+      <c r="N25">
+        <v>378.094399</v>
+      </c>
+      <c r="O25">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="P25">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="Q25">
+        <v>8.3299867515685</v>
+      </c>
+      <c r="R25">
+        <v>49.979920509411</v>
+      </c>
+      <c r="S25">
+        <v>0.0002913026067165816</v>
+      </c>
+      <c r="T25">
+        <v>0.0003404673711883889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.439148</v>
+      </c>
+      <c r="H26">
+        <v>13.317444</v>
+      </c>
+      <c r="I26">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J26">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>21.0077345</v>
+      </c>
+      <c r="N26">
+        <v>42.015469</v>
+      </c>
+      <c r="O26">
+        <v>0.07974258627637139</v>
+      </c>
+      <c r="P26">
+        <v>0.07240574124537677</v>
+      </c>
+      <c r="Q26">
+        <v>93.25644259020599</v>
+      </c>
+      <c r="R26">
+        <v>559.5386555412359</v>
+      </c>
+      <c r="S26">
+        <v>0.003261211047487805</v>
+      </c>
+      <c r="T26">
+        <v>0.003811623811897397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.439148</v>
+      </c>
+      <c r="H27">
+        <v>13.317444</v>
+      </c>
+      <c r="I27">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J27">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>23.794572</v>
+      </c>
+      <c r="N27">
+        <v>71.38371599999999</v>
+      </c>
+      <c r="O27">
+        <v>0.09032105344911566</v>
+      </c>
+      <c r="P27">
+        <v>0.1230163792728212</v>
+      </c>
+      <c r="Q27">
+        <v>105.627626704656</v>
+      </c>
+      <c r="R27">
+        <v>950.648640341904</v>
+      </c>
+      <c r="S27">
+        <v>0.003693835766852632</v>
+      </c>
+      <c r="T27">
+        <v>0.006475897524488449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.439148</v>
+      </c>
+      <c r="H28">
+        <v>13.317444</v>
+      </c>
+      <c r="I28">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J28">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>7.255376666666667</v>
+      </c>
+      <c r="N28">
+        <v>21.76613</v>
+      </c>
+      <c r="O28">
+        <v>0.02754045181831666</v>
+      </c>
+      <c r="P28">
+        <v>0.03750982231551986</v>
+      </c>
+      <c r="Q28">
+        <v>32.20769081908</v>
+      </c>
+      <c r="R28">
+        <v>289.86921737172</v>
+      </c>
+      <c r="S28">
+        <v>0.001126314431430889</v>
+      </c>
+      <c r="T28">
+        <v>0.001974613193080251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.439148</v>
+      </c>
+      <c r="H29">
+        <v>13.317444</v>
+      </c>
+      <c r="I29">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J29">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>6.849529333333333</v>
+      </c>
+      <c r="N29">
+        <v>20.548588</v>
+      </c>
+      <c r="O29">
+        <v>0.02599990892953593</v>
+      </c>
+      <c r="P29">
+        <v>0.03541161817534047</v>
+      </c>
+      <c r="Q29">
+        <v>30.406074441008</v>
+      </c>
+      <c r="R29">
+        <v>273.654669969072</v>
+      </c>
+      <c r="S29">
+        <v>0.001063311264332594</v>
+      </c>
+      <c r="T29">
+        <v>0.001864158348956407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.439148</v>
+      </c>
+      <c r="H30">
+        <v>13.317444</v>
+      </c>
+      <c r="I30">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J30">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.48994666666667</v>
+      </c>
+      <c r="N30">
+        <v>46.46984</v>
+      </c>
+      <c r="O30">
+        <v>0.05879779223614324</v>
+      </c>
+      <c r="P30">
+        <v>0.08008201005096623</v>
+      </c>
+      <c r="Q30">
+        <v>68.76216576544002</v>
+      </c>
+      <c r="R30">
+        <v>618.8594918889601</v>
+      </c>
+      <c r="S30">
+        <v>0.002404637453616441</v>
+      </c>
+      <c r="T30">
+        <v>0.004215722277884418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.439148</v>
+      </c>
+      <c r="H31">
+        <v>13.317444</v>
+      </c>
+      <c r="I31">
+        <v>0.04089673033910787</v>
+      </c>
+      <c r="J31">
+        <v>0.05264256323238422</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>189.0471995</v>
+      </c>
+      <c r="N31">
+        <v>378.094399</v>
+      </c>
+      <c r="O31">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="P31">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="Q31">
+        <v>839.208497566026</v>
+      </c>
+      <c r="R31">
+        <v>5035.250985396156</v>
+      </c>
+      <c r="S31">
+        <v>0.02934742037538751</v>
+      </c>
+      <c r="T31">
+        <v>0.0343005480760773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>70.333607</v>
+      </c>
+      <c r="H32">
+        <v>140.667214</v>
+      </c>
+      <c r="I32">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J32">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>21.0077345</v>
+      </c>
+      <c r="N32">
+        <v>42.015469</v>
+      </c>
+      <c r="O32">
+        <v>0.07974258627637139</v>
+      </c>
+      <c r="P32">
+        <v>0.07240574124537677</v>
+      </c>
+      <c r="Q32">
+        <v>1477.549742283341</v>
+      </c>
+      <c r="R32">
+        <v>5910.198969133366</v>
+      </c>
+      <c r="S32">
+        <v>0.05167044130046252</v>
+      </c>
+      <c r="T32">
+        <v>0.04026076643803923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>70.333607</v>
+      </c>
+      <c r="H33">
+        <v>140.667214</v>
+      </c>
+      <c r="I33">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J33">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>23.794572</v>
+      </c>
+      <c r="N33">
+        <v>71.38371599999999</v>
+      </c>
+      <c r="O33">
+        <v>0.09032105344911566</v>
+      </c>
+      <c r="P33">
+        <v>0.1230163792728212</v>
+      </c>
+      <c r="Q33">
+        <v>1673.558075781204</v>
+      </c>
+      <c r="R33">
+        <v>10041.34845468722</v>
+      </c>
+      <c r="S33">
+        <v>0.05852492260865298</v>
+      </c>
+      <c r="T33">
+        <v>0.06840249997817051</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>70.333607</v>
+      </c>
+      <c r="H34">
+        <v>140.667214</v>
+      </c>
+      <c r="I34">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J34">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>7.255376666666667</v>
+      </c>
+      <c r="N34">
+        <v>21.76613</v>
+      </c>
+      <c r="O34">
+        <v>0.02754045181831666</v>
+      </c>
+      <c r="P34">
+        <v>0.03750982231551986</v>
+      </c>
+      <c r="Q34">
+        <v>510.2968111103033</v>
+      </c>
+      <c r="R34">
+        <v>3061.78086666182</v>
+      </c>
+      <c r="S34">
+        <v>0.01784526142824898</v>
+      </c>
+      <c r="T34">
+        <v>0.02085710565768048</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.455323178223</v>
-      </c>
-      <c r="H25">
-        <v>50.455323178223</v>
-      </c>
-      <c r="I25">
-        <v>0.5947723997716127</v>
-      </c>
-      <c r="J25">
-        <v>0.5947723997716127</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>152.016511989126</v>
-      </c>
-      <c r="N25">
-        <v>152.016511989126</v>
-      </c>
-      <c r="O25">
-        <v>0.6788827661083993</v>
-      </c>
-      <c r="P25">
-        <v>0.6788827661083993</v>
-      </c>
-      <c r="Q25">
-        <v>7670.042240837563</v>
-      </c>
-      <c r="R25">
-        <v>7670.042240837563</v>
-      </c>
-      <c r="S25">
-        <v>0.4037807319618831</v>
-      </c>
-      <c r="T25">
-        <v>0.4037807319618831</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>70.333607</v>
+      </c>
+      <c r="H35">
+        <v>140.667214</v>
+      </c>
+      <c r="I35">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J35">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.849529333333333</v>
+      </c>
+      <c r="N35">
+        <v>20.548588</v>
+      </c>
+      <c r="O35">
+        <v>0.02599990892953593</v>
+      </c>
+      <c r="P35">
+        <v>0.03541161817534047</v>
+      </c>
+      <c r="Q35">
+        <v>481.7521042656386</v>
+      </c>
+      <c r="R35">
+        <v>2890.512625593832</v>
+      </c>
+      <c r="S35">
+        <v>0.01684704285242163</v>
+      </c>
+      <c r="T35">
+        <v>0.01969041216937256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>70.333607</v>
+      </c>
+      <c r="H36">
+        <v>140.667214</v>
+      </c>
+      <c r="I36">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J36">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.48994666666667</v>
+      </c>
+      <c r="N36">
+        <v>46.46984</v>
+      </c>
+      <c r="O36">
+        <v>0.05879779223614324</v>
+      </c>
+      <c r="P36">
+        <v>0.08008201005096623</v>
+      </c>
+      <c r="Q36">
+        <v>1089.463821304294</v>
+      </c>
+      <c r="R36">
+        <v>6536.78292782576</v>
+      </c>
+      <c r="S36">
+        <v>0.03809893827377223</v>
+      </c>
+      <c r="T36">
+        <v>0.04452910842559089</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>70.333607</v>
+      </c>
+      <c r="H37">
+        <v>140.667214</v>
+      </c>
+      <c r="I37">
+        <v>0.6479654562667858</v>
+      </c>
+      <c r="J37">
+        <v>0.5560438405236262</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>189.0471995</v>
+      </c>
+      <c r="N37">
+        <v>378.094399</v>
+      </c>
+      <c r="O37">
+        <v>0.717598207290517</v>
+      </c>
+      <c r="P37">
+        <v>0.6515744289399755</v>
+      </c>
+      <c r="Q37">
+        <v>13296.3714340836</v>
+      </c>
+      <c r="R37">
+        <v>53185.48573633439</v>
+      </c>
+      <c r="S37">
+        <v>0.4649788498032274</v>
+      </c>
+      <c r="T37">
+        <v>0.3623039478547725</v>
       </c>
     </row>
   </sheetData>
